--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mmrn2-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mmrn2-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Mmrn2</t>
+  </si>
+  <si>
+    <t>Cd93</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Mmrn2</t>
-  </si>
-  <si>
-    <t>Cd93</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>24.774793</v>
+        <v>53.20407366666667</v>
       </c>
       <c r="H2">
-        <v>74.32437899999999</v>
+        <v>159.612221</v>
       </c>
       <c r="I2">
-        <v>0.888116953236192</v>
+        <v>0.9416818042520982</v>
       </c>
       <c r="J2">
-        <v>0.888116953236192</v>
+        <v>0.9416818042520981</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>135.955556</v>
+        <v>281.0920463333333</v>
       </c>
       <c r="N2">
-        <v>407.866668</v>
+        <v>843.2761389999999</v>
       </c>
       <c r="O2">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="P2">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="Q2">
-        <v>3368.270757099908</v>
+        <v>14955.24194023275</v>
       </c>
       <c r="R2">
-        <v>30314.43681389917</v>
+        <v>134597.1774620947</v>
       </c>
       <c r="S2">
-        <v>0.6170352388362439</v>
+        <v>0.7807508401444716</v>
       </c>
       <c r="T2">
-        <v>0.6170352388362439</v>
+        <v>0.7807508401444715</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>24.774793</v>
+        <v>53.20407366666667</v>
       </c>
       <c r="H3">
-        <v>74.32437899999999</v>
+        <v>159.612221</v>
       </c>
       <c r="I3">
-        <v>0.888116953236192</v>
+        <v>0.9416818042520982</v>
       </c>
       <c r="J3">
-        <v>0.888116953236192</v>
+        <v>0.9416818042520981</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.347366</v>
       </c>
       <c r="O3">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="P3">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="Q3">
-        <v>11.126904581746</v>
+        <v>23.89511997332067</v>
       </c>
       <c r="R3">
-        <v>100.142141235714</v>
+        <v>215.056079759886</v>
       </c>
       <c r="S3">
-        <v>0.002038343328437505</v>
+        <v>0.001247464605994379</v>
       </c>
       <c r="T3">
-        <v>0.002038343328437504</v>
+        <v>0.001247464605994379</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>24.774793</v>
+        <v>53.20407366666667</v>
       </c>
       <c r="H4">
-        <v>74.32437899999999</v>
+        <v>159.612221</v>
       </c>
       <c r="I4">
-        <v>0.888116953236192</v>
+        <v>0.9416818042520982</v>
       </c>
       <c r="J4">
-        <v>0.888116953236192</v>
+        <v>0.9416818042520981</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.896484</v>
+        <v>4.452417</v>
       </c>
       <c r="N4">
-        <v>8.689451999999999</v>
+        <v>13.357251</v>
       </c>
       <c r="O4">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="P4">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="Q4">
-        <v>71.75979152781198</v>
+        <v>236.886722062719</v>
       </c>
       <c r="R4">
-        <v>645.8381237503079</v>
+        <v>2131.980498564471</v>
       </c>
       <c r="S4">
-        <v>0.01314571282931136</v>
+        <v>0.01236686828662963</v>
       </c>
       <c r="T4">
-        <v>0.01314571282931136</v>
+        <v>0.01236686828662963</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>24.774793</v>
+        <v>53.20407366666667</v>
       </c>
       <c r="H5">
-        <v>74.32437899999999</v>
+        <v>159.612221</v>
       </c>
       <c r="I5">
-        <v>0.888116953236192</v>
+        <v>0.9416818042520982</v>
       </c>
       <c r="J5">
-        <v>0.888116953236192</v>
+        <v>0.9416818042520981</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.38366533333333</v>
+        <v>53.03808999999999</v>
       </c>
       <c r="N5">
-        <v>169.150996</v>
+        <v>159.11427</v>
       </c>
       <c r="O5">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="P5">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="Q5">
-        <v>1396.893637214609</v>
+        <v>2821.842447499296</v>
       </c>
       <c r="R5">
-        <v>12572.04273493148</v>
+        <v>25396.58202749367</v>
       </c>
       <c r="S5">
-        <v>0.2558976582421992</v>
+        <v>0.1473166312150026</v>
       </c>
       <c r="T5">
-        <v>0.2558976582421992</v>
+        <v>0.1473166312150026</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>4.923056</v>
       </c>
       <c r="I6">
-        <v>0.05882658629857041</v>
+        <v>0.02904509584209167</v>
       </c>
       <c r="J6">
-        <v>0.05882658629857041</v>
+        <v>0.02904509584209167</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>135.955556</v>
+        <v>281.0920463333333</v>
       </c>
       <c r="N6">
-        <v>407.866668</v>
+        <v>843.2761389999999</v>
       </c>
       <c r="O6">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="P6">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="Q6">
-        <v>223.1056052330453</v>
+        <v>461.2772950845315</v>
       </c>
       <c r="R6">
-        <v>2007.950447097408</v>
+        <v>4151.495655760784</v>
       </c>
       <c r="S6">
-        <v>0.04087082967439531</v>
+        <v>0.02408136472255644</v>
       </c>
       <c r="T6">
-        <v>0.04087082967439531</v>
+        <v>0.02408136472255644</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>4.923056</v>
       </c>
       <c r="I7">
-        <v>0.05882658629857041</v>
+        <v>0.02904509584209167</v>
       </c>
       <c r="J7">
-        <v>0.05882658629857041</v>
+        <v>0.02904509584209167</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>1.347366</v>
       </c>
       <c r="O7">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="P7">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="Q7">
         <v>0.7370175856106667</v>
@@ -883,10 +883,10 @@
         <v>6.633158270496</v>
       </c>
       <c r="S7">
-        <v>0.0001350146276112745</v>
+        <v>3.847661585592661E-05</v>
       </c>
       <c r="T7">
-        <v>0.0001350146276112745</v>
+        <v>3.847661585592661E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>4.923056</v>
       </c>
       <c r="I8">
-        <v>0.05882658629857041</v>
+        <v>0.02904509584209167</v>
       </c>
       <c r="J8">
-        <v>0.05882658629857041</v>
+        <v>0.02904509584209167</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.896484</v>
+        <v>4.452417</v>
       </c>
       <c r="N8">
-        <v>8.689451999999999</v>
+        <v>13.357251</v>
       </c>
       <c r="O8">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="P8">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="Q8">
-        <v>4.753184311701332</v>
+        <v>7.306499408783999</v>
       </c>
       <c r="R8">
-        <v>42.778658805312</v>
+        <v>65.758494679056</v>
       </c>
       <c r="S8">
-        <v>0.0008707382596310461</v>
+        <v>0.0003814418766824987</v>
       </c>
       <c r="T8">
-        <v>0.0008707382596310461</v>
+        <v>0.0003814418766824988</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>4.923056</v>
       </c>
       <c r="I9">
-        <v>0.05882658629857041</v>
+        <v>0.02904509584209167</v>
       </c>
       <c r="J9">
-        <v>0.05882658629857041</v>
+        <v>0.02904509584209167</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.38366533333333</v>
+        <v>53.03808999999999</v>
       </c>
       <c r="N9">
-        <v>169.150996</v>
+        <v>159.11427</v>
       </c>
       <c r="O9">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="P9">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="Q9">
-        <v>92.52664730708622</v>
+        <v>87.03649573434664</v>
       </c>
       <c r="R9">
-        <v>832.7398257637759</v>
+        <v>783.3284616091198</v>
       </c>
       <c r="S9">
-        <v>0.01695000373693278</v>
+        <v>0.004543812626996812</v>
       </c>
       <c r="T9">
-        <v>0.01695000373693278</v>
+        <v>0.004543812626996812</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.440195</v>
+        <v>1.653900666666667</v>
       </c>
       <c r="H10">
-        <v>4.320585</v>
+        <v>4.961702</v>
       </c>
       <c r="I10">
-        <v>0.05162753914698693</v>
+        <v>0.02927309990581012</v>
       </c>
       <c r="J10">
-        <v>0.05162753914698693</v>
+        <v>0.02927309990581012</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>135.955556</v>
+        <v>281.0920463333333</v>
       </c>
       <c r="N10">
-        <v>407.866668</v>
+        <v>843.2761389999999</v>
       </c>
       <c r="O10">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="P10">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="Q10">
-        <v>195.80251197342</v>
+        <v>464.8983228253975</v>
       </c>
       <c r="R10">
-        <v>1762.22260776078</v>
+        <v>4184.084905428577</v>
       </c>
       <c r="S10">
-        <v>0.03586916208727817</v>
+        <v>0.0242704034865006</v>
       </c>
       <c r="T10">
-        <v>0.03586916208727817</v>
+        <v>0.0242704034865006</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.440195</v>
+        <v>1.653900666666667</v>
       </c>
       <c r="H11">
-        <v>4.320585</v>
+        <v>4.961702</v>
       </c>
       <c r="I11">
-        <v>0.05162753914698693</v>
+        <v>0.02927309990581012</v>
       </c>
       <c r="J11">
-        <v>0.05162753914698693</v>
+        <v>0.02927309990581012</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>1.347366</v>
       </c>
       <c r="O11">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="P11">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="Q11">
-        <v>0.6468232587900001</v>
+        <v>0.7428031752146667</v>
       </c>
       <c r="R11">
-        <v>5.821409329110001</v>
+        <v>6.685228576932</v>
       </c>
       <c r="S11">
-        <v>0.0001184918828544421</v>
+        <v>3.877865737167784E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001184918828544421</v>
+        <v>3.877865737167784E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.440195</v>
+        <v>1.653900666666667</v>
       </c>
       <c r="H12">
-        <v>4.320585</v>
+        <v>4.961702</v>
       </c>
       <c r="I12">
-        <v>0.05162753914698693</v>
+        <v>0.02927309990581012</v>
       </c>
       <c r="J12">
-        <v>0.05162753914698693</v>
+        <v>0.02927309990581012</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.896484</v>
+        <v>4.452417</v>
       </c>
       <c r="N12">
-        <v>8.689451999999999</v>
+        <v>13.357251</v>
       </c>
       <c r="O12">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="P12">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="Q12">
-        <v>4.171501774379999</v>
+        <v>7.363855444577999</v>
       </c>
       <c r="R12">
-        <v>37.54351596942</v>
+        <v>66.27469900120199</v>
       </c>
       <c r="S12">
-        <v>0.0007641795387840406</v>
+        <v>0.0003844361962202557</v>
       </c>
       <c r="T12">
-        <v>0.0007641795387840406</v>
+        <v>0.0003844361962202557</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,14 +1204,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.440195</v>
+        <v>1.653900666666667</v>
       </c>
       <c r="H13">
-        <v>4.320585</v>
+        <v>4.961702</v>
       </c>
       <c r="I13">
-        <v>0.05162753914698693</v>
+        <v>0.02927309990581012</v>
       </c>
       <c r="J13">
-        <v>0.05162753914698693</v>
+        <v>0.02927309990581012</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>56.38366533333333</v>
+        <v>53.03808999999999</v>
       </c>
       <c r="N13">
-        <v>169.150996</v>
+        <v>159.11427</v>
       </c>
       <c r="O13">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="P13">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="Q13">
-        <v>81.20347289474</v>
+        <v>87.71973240972665</v>
       </c>
       <c r="R13">
-        <v>730.83125605266</v>
+        <v>789.4775916875399</v>
       </c>
       <c r="S13">
-        <v>0.01487570563807028</v>
+        <v>0.004579481565717582</v>
       </c>
       <c r="T13">
-        <v>0.01487570563807028</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.039861</v>
-      </c>
-      <c r="H14">
-        <v>0.119583</v>
-      </c>
-      <c r="I14">
-        <v>0.001428921318250685</v>
-      </c>
-      <c r="J14">
-        <v>0.001428921318250685</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>135.955556</v>
-      </c>
-      <c r="N14">
-        <v>407.866668</v>
-      </c>
-      <c r="O14">
-        <v>0.6947679994035034</v>
-      </c>
-      <c r="P14">
-        <v>0.6947679994035034</v>
-      </c>
-      <c r="Q14">
-        <v>5.419324417716</v>
-      </c>
-      <c r="R14">
-        <v>48.773919759444</v>
-      </c>
-      <c r="S14">
-        <v>0.0009927688055860456</v>
-      </c>
-      <c r="T14">
-        <v>0.0009927688055860453</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.039861</v>
-      </c>
-      <c r="H15">
-        <v>0.119583</v>
-      </c>
-      <c r="I15">
-        <v>0.001428921318250685</v>
-      </c>
-      <c r="J15">
-        <v>0.001428921318250685</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M15">
-        <v>0.449122</v>
-      </c>
-      <c r="N15">
-        <v>1.347366</v>
-      </c>
-      <c r="O15">
-        <v>0.002295129398228494</v>
-      </c>
-      <c r="P15">
-        <v>0.002295129398228494</v>
-      </c>
-      <c r="Q15">
-        <v>0.017902452042</v>
-      </c>
-      <c r="R15">
-        <v>0.161122068378</v>
-      </c>
-      <c r="S15">
-        <v>3.279559325272562E-06</v>
-      </c>
-      <c r="T15">
-        <v>3.279559325272561E-06</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.039861</v>
-      </c>
-      <c r="H16">
-        <v>0.119583</v>
-      </c>
-      <c r="I16">
-        <v>0.001428921318250685</v>
-      </c>
-      <c r="J16">
-        <v>0.001428921318250685</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.896484</v>
-      </c>
-      <c r="N16">
-        <v>8.689451999999999</v>
-      </c>
-      <c r="O16">
-        <v>0.01480178120844327</v>
-      </c>
-      <c r="P16">
-        <v>0.01480178120844327</v>
-      </c>
-      <c r="Q16">
-        <v>0.115456748724</v>
-      </c>
-      <c r="R16">
-        <v>1.039110738516</v>
-      </c>
-      <c r="S16">
-        <v>2.115058071682698E-05</v>
-      </c>
-      <c r="T16">
-        <v>2.115058071682698E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.039861</v>
-      </c>
-      <c r="H17">
-        <v>0.119583</v>
-      </c>
-      <c r="I17">
-        <v>0.001428921318250685</v>
-      </c>
-      <c r="J17">
-        <v>0.001428921318250685</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>56.38366533333333</v>
-      </c>
-      <c r="N17">
-        <v>169.150996</v>
-      </c>
-      <c r="O17">
-        <v>0.2881350899898248</v>
-      </c>
-      <c r="P17">
-        <v>0.2881350899898248</v>
-      </c>
-      <c r="Q17">
-        <v>2.247509283852</v>
-      </c>
-      <c r="R17">
-        <v>20.227583554668</v>
-      </c>
-      <c r="S17">
-        <v>0.0004117223726225404</v>
-      </c>
-      <c r="T17">
-        <v>0.0004117223726225402</v>
+        <v>0.004579481565717583</v>
       </c>
     </row>
   </sheetData>
